--- a/Отчёт Начальная школа Тестовый сервер 2022-05-01 - 2022-05-31.xlsx
+++ b/Отчёт Начальная школа Тестовый сервер 2022-05-01 - 2022-05-31.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Отчёт" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="410" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1889,6 +1889,12 @@
       <b/>
       <sz val="10"/>
       <name val="Times new roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1944,1257 +1950,1260 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="420">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3478,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3503,35 +3512,35 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="411"/>
+      <c r="J2" s="411"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="419" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="412"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="413"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="412"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3541,1407 +3550,1407 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="414" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="B10" s="415"/>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="415"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="414" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="B11" s="415"/>
+      <c r="C11" s="415"/>
+      <c r="D11" s="415"/>
+      <c r="E11" s="415"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="415"/>
+      <c r="H11" s="415"/>
+      <c r="I11" s="415"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="416" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="416"/>
+      <c r="C12" s="416"/>
+      <c r="D12" s="416"/>
+      <c r="E12" s="416"/>
+      <c r="F12" s="416"/>
+      <c r="G12" s="416"/>
+      <c r="H12" s="415"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="415"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="415"/>
+      <c r="C13" s="415"/>
+      <c r="D13" s="415"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="415"/>
+      <c r="H13" s="415"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
     </row>
     <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="418" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="418" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="418" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="418" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="418" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="418"/>
+      <c r="G15" s="418" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="418" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="418" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="418" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="11" t="s">
+      <c r="A16" s="418"/>
+      <c r="B16" s="418"/>
+      <c r="C16" s="418"/>
+      <c r="D16" s="418"/>
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="G16" s="418"/>
+      <c r="H16" s="418"/>
+      <c r="I16" s="418"/>
+      <c r="J16" s="418"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="6">
         <v>6610106</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="9">
         <v>22</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="8">
         <v>3</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="11">
         <v>1100</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="12">
         <v>150</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="13">
         <v>950</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="14">
         <v>2</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="16">
         <v>6610110</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="19">
         <v>22</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="18">
         <v>4</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="20">
         <v>0</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="21">
         <v>1100</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="22">
         <v>200</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="23">
         <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="24">
         <v>3</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="26">
         <v>6610107</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="29">
         <v>22</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="28">
         <v>4</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="30">
         <v>0</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="31">
         <v>1100</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="32">
         <v>200</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="33">
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
+      <c r="A20" s="34">
         <v>4</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="36">
         <v>6610105</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="39">
         <v>22</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="38">
         <v>4</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="40">
         <v>0</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="41">
         <v>1100</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="42">
         <v>200</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="43">
         <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
+      <c r="A21" s="44">
         <v>5</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="46">
         <v>6610108</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="49">
         <v>22</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="48">
         <v>3</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="50">
         <v>0</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="51">
         <v>1100</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="52">
         <v>150</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21" s="53">
         <v>950</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="54">
         <v>6</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="56">
         <v>6610109</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="59">
         <v>22</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="58">
         <v>3</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="60">
         <v>0</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="61">
         <v>1100</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="62">
         <v>150</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="63">
         <v>950</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+      <c r="A23" s="64">
         <v>7</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="66">
         <v>6610103</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="69">
         <v>22</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="68">
         <v>5</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="70">
         <v>0</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="71">
         <v>1100</v>
       </c>
-      <c r="I23" s="80">
+      <c r="I23" s="72">
         <v>250</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="73">
         <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="82">
+      <c r="A24" s="74">
         <v>8</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="76">
         <v>6610101</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="79">
         <v>22</v>
       </c>
-      <c r="F24" s="86">
+      <c r="F24" s="78">
         <v>4</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="80">
         <v>0</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="81">
         <v>1100</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I24" s="82">
         <v>200</v>
       </c>
-      <c r="J24" s="91">
+      <c r="J24" s="83">
         <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="92">
+      <c r="A25" s="84">
         <v>9</v>
       </c>
-      <c r="B25" s="94">
+      <c r="B25" s="86">
         <v>6610112</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="97">
+      <c r="E25" s="89">
         <v>22</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="88">
         <v>2</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="90">
         <v>0</v>
       </c>
-      <c r="H25" s="99">
+      <c r="H25" s="91">
         <v>1100</v>
       </c>
-      <c r="I25" s="100">
+      <c r="I25" s="92">
         <v>100</v>
       </c>
-      <c r="J25" s="101">
+      <c r="J25" s="93">
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="102">
+      <c r="A26" s="94">
         <v>10</v>
       </c>
-      <c r="B26" s="104">
+      <c r="B26" s="96">
         <v>6610111</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="105" t="s">
+      <c r="D26" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="107">
+      <c r="E26" s="99">
         <v>22</v>
       </c>
-      <c r="F26" s="106">
+      <c r="F26" s="98">
         <v>4</v>
       </c>
-      <c r="G26" s="108">
+      <c r="G26" s="100">
         <v>0</v>
       </c>
-      <c r="H26" s="109">
+      <c r="H26" s="101">
         <v>1100</v>
       </c>
-      <c r="I26" s="110">
+      <c r="I26" s="102">
         <v>200</v>
       </c>
-      <c r="J26" s="111">
+      <c r="J26" s="103">
         <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="112">
+      <c r="A27" s="104">
         <v>11</v>
       </c>
-      <c r="B27" s="114">
+      <c r="B27" s="106">
         <v>6610104</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D27" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="117">
+      <c r="E27" s="109">
         <v>22</v>
       </c>
-      <c r="F27" s="116">
+      <c r="F27" s="108">
         <v>4</v>
       </c>
-      <c r="G27" s="118">
+      <c r="G27" s="110">
         <v>0</v>
       </c>
-      <c r="H27" s="119">
+      <c r="H27" s="111">
         <v>1100</v>
       </c>
-      <c r="I27" s="120">
+      <c r="I27" s="112">
         <v>200</v>
       </c>
-      <c r="J27" s="121">
+      <c r="J27" s="113">
         <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="122">
+      <c r="A28" s="114">
         <v>12</v>
       </c>
-      <c r="B28" s="124">
+      <c r="B28" s="116">
         <v>6610102</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="127">
+      <c r="E28" s="119">
         <v>22</v>
       </c>
-      <c r="F28" s="126">
+      <c r="F28" s="118">
         <v>5</v>
       </c>
-      <c r="G28" s="128">
+      <c r="G28" s="120">
         <v>0</v>
       </c>
-      <c r="H28" s="129">
+      <c r="H28" s="121">
         <v>1100</v>
       </c>
-      <c r="I28" s="130">
+      <c r="I28" s="122">
         <v>250</v>
       </c>
-      <c r="J28" s="131">
+      <c r="J28" s="123">
         <v>850</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="132">
+      <c r="A29" s="124">
         <v>13</v>
       </c>
-      <c r="B29" s="134">
+      <c r="B29" s="126">
         <v>6610126</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="135" t="s">
+      <c r="D29" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="137">
+      <c r="E29" s="129">
         <v>22</v>
       </c>
-      <c r="F29" s="136">
+      <c r="F29" s="128">
         <v>5</v>
       </c>
-      <c r="G29" s="138">
+      <c r="G29" s="130">
         <v>0</v>
       </c>
-      <c r="H29" s="139">
+      <c r="H29" s="131">
         <v>1100</v>
       </c>
-      <c r="I29" s="140">
+      <c r="I29" s="132">
         <v>250</v>
       </c>
-      <c r="J29" s="141">
+      <c r="J29" s="133">
         <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="142">
+      <c r="A30" s="134">
         <v>14</v>
       </c>
-      <c r="B30" s="144">
+      <c r="B30" s="136">
         <v>6610122</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="145" t="s">
+      <c r="D30" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="147">
+      <c r="E30" s="139">
         <v>22</v>
       </c>
-      <c r="F30" s="146">
+      <c r="F30" s="138">
         <v>5</v>
       </c>
-      <c r="G30" s="148">
+      <c r="G30" s="140">
         <v>0</v>
       </c>
-      <c r="H30" s="149">
+      <c r="H30" s="141">
         <v>1100</v>
       </c>
-      <c r="I30" s="150">
+      <c r="I30" s="142">
         <v>250</v>
       </c>
-      <c r="J30" s="151">
+      <c r="J30" s="143">
         <v>850</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="152">
+      <c r="A31" s="144">
         <v>15</v>
       </c>
-      <c r="B31" s="154">
+      <c r="B31" s="146">
         <v>6610116</v>
       </c>
-      <c r="C31" s="153" t="s">
+      <c r="C31" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="155" t="s">
+      <c r="D31" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="157">
+      <c r="E31" s="149">
         <v>22</v>
       </c>
-      <c r="F31" s="156">
+      <c r="F31" s="148">
         <v>4</v>
       </c>
-      <c r="G31" s="158">
+      <c r="G31" s="150">
         <v>0</v>
       </c>
-      <c r="H31" s="159">
+      <c r="H31" s="151">
         <v>1100</v>
       </c>
-      <c r="I31" s="160">
+      <c r="I31" s="152">
         <v>200</v>
       </c>
-      <c r="J31" s="161">
+      <c r="J31" s="153">
         <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="162">
+      <c r="A32" s="154">
         <v>16</v>
       </c>
-      <c r="B32" s="164">
+      <c r="B32" s="156">
         <v>6610119</v>
       </c>
-      <c r="C32" s="163" t="s">
+      <c r="C32" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="165" t="s">
+      <c r="D32" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="167">
+      <c r="E32" s="159">
         <v>22</v>
       </c>
-      <c r="F32" s="166">
+      <c r="F32" s="158">
         <v>5</v>
       </c>
-      <c r="G32" s="168">
+      <c r="G32" s="160">
         <v>0</v>
       </c>
-      <c r="H32" s="169">
+      <c r="H32" s="161">
         <v>1100</v>
       </c>
-      <c r="I32" s="170">
+      <c r="I32" s="162">
         <v>250</v>
       </c>
-      <c r="J32" s="171">
+      <c r="J32" s="163">
         <v>850</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="172">
+      <c r="A33" s="164">
         <v>17</v>
       </c>
-      <c r="B33" s="174">
+      <c r="B33" s="166">
         <v>6610127</v>
       </c>
-      <c r="C33" s="173" t="s">
+      <c r="C33" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="177">
+      <c r="E33" s="169">
         <v>22</v>
       </c>
-      <c r="F33" s="176">
+      <c r="F33" s="168">
         <v>5</v>
       </c>
-      <c r="G33" s="178">
+      <c r="G33" s="170">
         <v>0</v>
       </c>
-      <c r="H33" s="179">
+      <c r="H33" s="171">
         <v>1100</v>
       </c>
-      <c r="I33" s="180">
+      <c r="I33" s="172">
         <v>250</v>
       </c>
-      <c r="J33" s="181">
+      <c r="J33" s="173">
         <v>850</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="182">
+      <c r="A34" s="174">
         <v>18</v>
       </c>
-      <c r="B34" s="184">
+      <c r="B34" s="176">
         <v>6610121</v>
       </c>
-      <c r="C34" s="183" t="s">
+      <c r="C34" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="185" t="s">
+      <c r="D34" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="187">
+      <c r="E34" s="179">
         <v>22</v>
       </c>
-      <c r="F34" s="186">
+      <c r="F34" s="178">
         <v>3</v>
       </c>
-      <c r="G34" s="188">
+      <c r="G34" s="180">
         <v>0</v>
       </c>
-      <c r="H34" s="189">
+      <c r="H34" s="181">
         <v>1100</v>
       </c>
-      <c r="I34" s="190">
+      <c r="I34" s="182">
         <v>150</v>
       </c>
-      <c r="J34" s="191">
+      <c r="J34" s="183">
         <v>950</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="192">
+      <c r="A35" s="184">
         <v>19</v>
       </c>
-      <c r="B35" s="194">
+      <c r="B35" s="186">
         <v>6610117</v>
       </c>
-      <c r="C35" s="193" t="s">
+      <c r="C35" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="195" t="s">
+      <c r="D35" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="197">
+      <c r="E35" s="189">
         <v>22</v>
       </c>
-      <c r="F35" s="196">
+      <c r="F35" s="188">
         <v>4</v>
       </c>
-      <c r="G35" s="198">
+      <c r="G35" s="190">
         <v>0</v>
       </c>
-      <c r="H35" s="199">
+      <c r="H35" s="191">
         <v>1100</v>
       </c>
-      <c r="I35" s="200">
+      <c r="I35" s="192">
         <v>200</v>
       </c>
-      <c r="J35" s="201">
+      <c r="J35" s="193">
         <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="202">
+      <c r="A36" s="194">
         <v>20</v>
       </c>
-      <c r="B36" s="204">
+      <c r="B36" s="196">
         <v>6610120</v>
       </c>
-      <c r="C36" s="203" t="s">
+      <c r="C36" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="205" t="s">
+      <c r="D36" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="207">
+      <c r="E36" s="199">
         <v>22</v>
       </c>
-      <c r="F36" s="206">
+      <c r="F36" s="198">
         <v>3</v>
       </c>
-      <c r="G36" s="208">
+      <c r="G36" s="200">
         <v>0</v>
       </c>
-      <c r="H36" s="209">
+      <c r="H36" s="201">
         <v>1100</v>
       </c>
-      <c r="I36" s="210">
+      <c r="I36" s="202">
         <v>150</v>
       </c>
-      <c r="J36" s="211">
+      <c r="J36" s="203">
         <v>950</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="212">
+      <c r="A37" s="204">
         <v>21</v>
       </c>
-      <c r="B37" s="214">
+      <c r="B37" s="206">
         <v>6610114</v>
       </c>
-      <c r="C37" s="213" t="s">
+      <c r="C37" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="215" t="s">
+      <c r="D37" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="217">
+      <c r="E37" s="209">
         <v>22</v>
       </c>
-      <c r="F37" s="216">
+      <c r="F37" s="208">
         <v>5</v>
       </c>
-      <c r="G37" s="218">
+      <c r="G37" s="210">
         <v>0</v>
       </c>
-      <c r="H37" s="219">
+      <c r="H37" s="211">
         <v>1100</v>
       </c>
-      <c r="I37" s="220">
+      <c r="I37" s="212">
         <v>250</v>
       </c>
-      <c r="J37" s="221">
+      <c r="J37" s="213">
         <v>850</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="222">
+      <c r="A38" s="214">
         <v>22</v>
       </c>
-      <c r="B38" s="224">
+      <c r="B38" s="216">
         <v>6610123</v>
       </c>
-      <c r="C38" s="223" t="s">
+      <c r="C38" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="225" t="s">
+      <c r="D38" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="227">
+      <c r="E38" s="219">
         <v>22</v>
       </c>
-      <c r="F38" s="226">
+      <c r="F38" s="218">
         <v>3</v>
       </c>
-      <c r="G38" s="228">
+      <c r="G38" s="220">
         <v>0</v>
       </c>
-      <c r="H38" s="229">
+      <c r="H38" s="221">
         <v>1100</v>
       </c>
-      <c r="I38" s="230">
+      <c r="I38" s="222">
         <v>150</v>
       </c>
-      <c r="J38" s="231">
+      <c r="J38" s="223">
         <v>950</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="232">
+      <c r="A39" s="224">
         <v>23</v>
       </c>
-      <c r="B39" s="234">
+      <c r="B39" s="226">
         <v>6610124</v>
       </c>
-      <c r="C39" s="233" t="s">
+      <c r="C39" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="235" t="s">
+      <c r="D39" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="237">
+      <c r="E39" s="229">
         <v>22</v>
       </c>
-      <c r="F39" s="236">
+      <c r="F39" s="228">
         <v>3</v>
       </c>
-      <c r="G39" s="238">
+      <c r="G39" s="230">
         <v>0</v>
       </c>
-      <c r="H39" s="239">
+      <c r="H39" s="231">
         <v>1100</v>
       </c>
-      <c r="I39" s="240">
+      <c r="I39" s="232">
         <v>150</v>
       </c>
-      <c r="J39" s="241">
+      <c r="J39" s="233">
         <v>950</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="242">
+      <c r="A40" s="234">
         <v>24</v>
       </c>
-      <c r="B40" s="244">
+      <c r="B40" s="236">
         <v>6610118</v>
       </c>
-      <c r="C40" s="243" t="s">
+      <c r="C40" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="245" t="s">
+      <c r="D40" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="247">
+      <c r="E40" s="239">
         <v>22</v>
       </c>
-      <c r="F40" s="246">
+      <c r="F40" s="238">
         <v>3</v>
       </c>
-      <c r="G40" s="248">
+      <c r="G40" s="240">
         <v>0</v>
       </c>
-      <c r="H40" s="249">
+      <c r="H40" s="241">
         <v>1100</v>
       </c>
-      <c r="I40" s="250">
+      <c r="I40" s="242">
         <v>150</v>
       </c>
-      <c r="J40" s="251">
+      <c r="J40" s="243">
         <v>950</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="252">
+      <c r="A41" s="244">
         <v>25</v>
       </c>
-      <c r="B41" s="254">
+      <c r="B41" s="246">
         <v>6610125</v>
       </c>
-      <c r="C41" s="253" t="s">
+      <c r="C41" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="255" t="s">
+      <c r="D41" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="257">
+      <c r="E41" s="249">
         <v>22</v>
       </c>
-      <c r="F41" s="256">
+      <c r="F41" s="248">
         <v>4</v>
       </c>
-      <c r="G41" s="258">
+      <c r="G41" s="250">
         <v>0</v>
       </c>
-      <c r="H41" s="259">
+      <c r="H41" s="251">
         <v>1100</v>
       </c>
-      <c r="I41" s="260">
+      <c r="I41" s="252">
         <v>200</v>
       </c>
-      <c r="J41" s="261">
+      <c r="J41" s="253">
         <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="262">
+      <c r="A42" s="254">
         <v>26</v>
       </c>
-      <c r="B42" s="264">
+      <c r="B42" s="256">
         <v>6610115</v>
       </c>
-      <c r="C42" s="263" t="s">
+      <c r="C42" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="265" t="s">
+      <c r="D42" s="257" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="267">
+      <c r="E42" s="259">
         <v>22</v>
       </c>
-      <c r="F42" s="266">
+      <c r="F42" s="258">
         <v>4</v>
       </c>
-      <c r="G42" s="268">
+      <c r="G42" s="260">
         <v>0</v>
       </c>
-      <c r="H42" s="269">
+      <c r="H42" s="261">
         <v>1100</v>
       </c>
-      <c r="I42" s="270">
+      <c r="I42" s="262">
         <v>200</v>
       </c>
-      <c r="J42" s="271">
+      <c r="J42" s="263">
         <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="272">
+      <c r="A43" s="264">
         <v>27</v>
       </c>
-      <c r="B43" s="274">
+      <c r="B43" s="266">
         <v>6610138</v>
       </c>
-      <c r="C43" s="273" t="s">
+      <c r="C43" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="275" t="s">
+      <c r="D43" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="277">
+      <c r="E43" s="269">
         <v>22</v>
       </c>
-      <c r="F43" s="276">
+      <c r="F43" s="268">
         <v>3</v>
       </c>
-      <c r="G43" s="278">
+      <c r="G43" s="270">
         <v>0</v>
       </c>
-      <c r="H43" s="279">
+      <c r="H43" s="271">
         <v>1100</v>
       </c>
-      <c r="I43" s="280">
+      <c r="I43" s="272">
         <v>150</v>
       </c>
-      <c r="J43" s="281">
+      <c r="J43" s="273">
         <v>950</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="282">
+      <c r="A44" s="274">
         <v>28</v>
       </c>
-      <c r="B44" s="284">
+      <c r="B44" s="276">
         <v>6610137</v>
       </c>
-      <c r="C44" s="283" t="s">
+      <c r="C44" s="275" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="285" t="s">
+      <c r="D44" s="277" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="287">
+      <c r="E44" s="279">
         <v>22</v>
       </c>
-      <c r="F44" s="286">
+      <c r="F44" s="278">
         <v>3</v>
       </c>
-      <c r="G44" s="288">
+      <c r="G44" s="280">
         <v>0</v>
       </c>
-      <c r="H44" s="289">
+      <c r="H44" s="281">
         <v>1100</v>
       </c>
-      <c r="I44" s="290">
+      <c r="I44" s="282">
         <v>150</v>
       </c>
-      <c r="J44" s="291">
+      <c r="J44" s="283">
         <v>950</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="292">
+      <c r="A45" s="284">
         <v>29</v>
       </c>
-      <c r="B45" s="294">
+      <c r="B45" s="286">
         <v>6610132</v>
       </c>
-      <c r="C45" s="293" t="s">
+      <c r="C45" s="285" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="287" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="297">
+      <c r="E45" s="289">
         <v>22</v>
       </c>
-      <c r="F45" s="296">
+      <c r="F45" s="288">
         <v>4</v>
       </c>
-      <c r="G45" s="298">
+      <c r="G45" s="290">
         <v>0</v>
       </c>
-      <c r="H45" s="299">
+      <c r="H45" s="291">
         <v>1100</v>
       </c>
-      <c r="I45" s="300">
+      <c r="I45" s="292">
         <v>200</v>
       </c>
-      <c r="J45" s="301">
+      <c r="J45" s="293">
         <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="302">
+      <c r="A46" s="294">
         <v>30</v>
       </c>
-      <c r="B46" s="304">
+      <c r="B46" s="296">
         <v>6610129</v>
       </c>
-      <c r="C46" s="303" t="s">
+      <c r="C46" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="305" t="s">
+      <c r="D46" s="297" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="307">
+      <c r="E46" s="299">
         <v>22</v>
       </c>
-      <c r="F46" s="306">
+      <c r="F46" s="298">
         <v>4</v>
       </c>
-      <c r="G46" s="308">
+      <c r="G46" s="300">
         <v>0</v>
       </c>
-      <c r="H46" s="309">
+      <c r="H46" s="301">
         <v>1100</v>
       </c>
-      <c r="I46" s="310">
+      <c r="I46" s="302">
         <v>200</v>
       </c>
-      <c r="J46" s="311">
+      <c r="J46" s="303">
         <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="312">
+      <c r="A47" s="304">
         <v>31</v>
       </c>
-      <c r="B47" s="314">
+      <c r="B47" s="306">
         <v>6610131</v>
       </c>
-      <c r="C47" s="313" t="s">
+      <c r="C47" s="305" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="315" t="s">
+      <c r="D47" s="307" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="317">
+      <c r="E47" s="309">
         <v>22</v>
       </c>
-      <c r="F47" s="316">
+      <c r="F47" s="308">
         <v>3</v>
       </c>
-      <c r="G47" s="318">
+      <c r="G47" s="310">
         <v>0</v>
       </c>
-      <c r="H47" s="319">
+      <c r="H47" s="311">
         <v>1100</v>
       </c>
-      <c r="I47" s="320">
+      <c r="I47" s="312">
         <v>150</v>
       </c>
-      <c r="J47" s="321">
+      <c r="J47" s="313">
         <v>950</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="322">
+      <c r="A48" s="314">
         <v>32</v>
       </c>
-      <c r="B48" s="324">
+      <c r="B48" s="316">
         <v>6610130</v>
       </c>
-      <c r="C48" s="323" t="s">
+      <c r="C48" s="315" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="325" t="s">
+      <c r="D48" s="317" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="327">
+      <c r="E48" s="319">
         <v>22</v>
       </c>
-      <c r="F48" s="326">
+      <c r="F48" s="318">
         <v>4</v>
       </c>
-      <c r="G48" s="328">
+      <c r="G48" s="320">
         <v>0</v>
       </c>
-      <c r="H48" s="329">
+      <c r="H48" s="321">
         <v>1100</v>
       </c>
-      <c r="I48" s="330">
+      <c r="I48" s="322">
         <v>200</v>
       </c>
-      <c r="J48" s="331">
+      <c r="J48" s="323">
         <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="332">
+      <c r="A49" s="324">
         <v>33</v>
       </c>
-      <c r="B49" s="334">
+      <c r="B49" s="326">
         <v>6610133</v>
       </c>
-      <c r="C49" s="333" t="s">
+      <c r="C49" s="325" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="335" t="s">
+      <c r="D49" s="327" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="337">
+      <c r="E49" s="329">
         <v>22</v>
       </c>
-      <c r="F49" s="336">
+      <c r="F49" s="328">
         <v>4</v>
       </c>
-      <c r="G49" s="338">
+      <c r="G49" s="330">
         <v>0</v>
       </c>
-      <c r="H49" s="339">
+      <c r="H49" s="331">
         <v>1100</v>
       </c>
-      <c r="I49" s="340">
+      <c r="I49" s="332">
         <v>200</v>
       </c>
-      <c r="J49" s="341">
+      <c r="J49" s="333">
         <v>900</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="342">
+      <c r="A50" s="334">
         <v>34</v>
       </c>
-      <c r="B50" s="344">
+      <c r="B50" s="336">
         <v>6610139</v>
       </c>
-      <c r="C50" s="343" t="s">
+      <c r="C50" s="335" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="345" t="s">
+      <c r="D50" s="337" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="347">
+      <c r="E50" s="339">
         <v>22</v>
       </c>
-      <c r="F50" s="346">
+      <c r="F50" s="338">
         <v>3</v>
       </c>
-      <c r="G50" s="348">
+      <c r="G50" s="340">
         <v>0</v>
       </c>
-      <c r="H50" s="349">
+      <c r="H50" s="341">
         <v>1100</v>
       </c>
-      <c r="I50" s="350">
+      <c r="I50" s="342">
         <v>150</v>
       </c>
-      <c r="J50" s="351">
+      <c r="J50" s="343">
         <v>950</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="352">
+      <c r="A51" s="344">
         <v>35</v>
       </c>
-      <c r="B51" s="354">
+      <c r="B51" s="346">
         <v>6610136</v>
       </c>
-      <c r="C51" s="353" t="s">
+      <c r="C51" s="345" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="355" t="s">
+      <c r="D51" s="347" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="357">
+      <c r="E51" s="349">
         <v>22</v>
       </c>
-      <c r="F51" s="356">
+      <c r="F51" s="348">
         <v>3</v>
       </c>
-      <c r="G51" s="358">
+      <c r="G51" s="350">
         <v>0</v>
       </c>
-      <c r="H51" s="359">
+      <c r="H51" s="351">
         <v>1100</v>
       </c>
-      <c r="I51" s="360">
+      <c r="I51" s="352">
         <v>150</v>
       </c>
-      <c r="J51" s="361">
+      <c r="J51" s="353">
         <v>950</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="362">
+      <c r="A52" s="354">
         <v>36</v>
       </c>
-      <c r="B52" s="364">
+      <c r="B52" s="356">
         <v>6610140</v>
       </c>
-      <c r="C52" s="363" t="s">
+      <c r="C52" s="355" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="365" t="s">
+      <c r="D52" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="367">
+      <c r="E52" s="359">
         <v>22</v>
       </c>
-      <c r="F52" s="366">
+      <c r="F52" s="358">
         <v>4</v>
       </c>
-      <c r="G52" s="368">
+      <c r="G52" s="360">
         <v>0</v>
       </c>
-      <c r="H52" s="369">
+      <c r="H52" s="361">
         <v>1100</v>
       </c>
-      <c r="I52" s="370">
+      <c r="I52" s="362">
         <v>200</v>
       </c>
-      <c r="J52" s="371">
+      <c r="J52" s="363">
         <v>900</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="372">
+      <c r="A53" s="364">
         <v>37</v>
       </c>
-      <c r="B53" s="374">
+      <c r="B53" s="366">
         <v>6610142</v>
       </c>
-      <c r="C53" s="373" t="s">
+      <c r="C53" s="365" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="375" t="s">
+      <c r="D53" s="367" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="377">
+      <c r="E53" s="369">
         <v>22</v>
       </c>
-      <c r="F53" s="376">
+      <c r="F53" s="368">
         <v>3</v>
       </c>
-      <c r="G53" s="378">
+      <c r="G53" s="370">
         <v>0</v>
       </c>
-      <c r="H53" s="379">
+      <c r="H53" s="371">
         <v>1100</v>
       </c>
-      <c r="I53" s="380">
+      <c r="I53" s="372">
         <v>150</v>
       </c>
-      <c r="J53" s="381">
+      <c r="J53" s="373">
         <v>950</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="382">
+      <c r="A54" s="374">
         <v>38</v>
       </c>
-      <c r="B54" s="384">
+      <c r="B54" s="376">
         <v>6610141</v>
       </c>
-      <c r="C54" s="383" t="s">
+      <c r="C54" s="375" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="385" t="s">
+      <c r="D54" s="377" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="387">
+      <c r="E54" s="379">
         <v>22</v>
       </c>
-      <c r="F54" s="386">
+      <c r="F54" s="378">
         <v>4</v>
       </c>
-      <c r="G54" s="388">
+      <c r="G54" s="380">
         <v>0</v>
       </c>
-      <c r="H54" s="389">
+      <c r="H54" s="381">
         <v>1100</v>
       </c>
-      <c r="I54" s="390">
+      <c r="I54" s="382">
         <v>200</v>
       </c>
-      <c r="J54" s="391">
+      <c r="J54" s="383">
         <v>900</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="392">
+      <c r="A55" s="384">
         <v>39</v>
       </c>
-      <c r="B55" s="394">
+      <c r="B55" s="386">
         <v>6610135</v>
       </c>
-      <c r="C55" s="393" t="s">
+      <c r="C55" s="385" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="395" t="s">
+      <c r="D55" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="397">
+      <c r="E55" s="389">
         <v>22</v>
       </c>
-      <c r="F55" s="396">
+      <c r="F55" s="388">
         <v>5</v>
       </c>
-      <c r="G55" s="398">
+      <c r="G55" s="390">
         <v>0</v>
       </c>
-      <c r="H55" s="399">
+      <c r="H55" s="391">
         <v>1100</v>
       </c>
-      <c r="I55" s="400">
+      <c r="I55" s="392">
         <v>250</v>
       </c>
-      <c r="J55" s="401">
+      <c r="J55" s="393">
         <v>850</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="402">
+      <c r="A56" s="394">
         <v>40</v>
       </c>
-      <c r="B56" s="404">
+      <c r="B56" s="396">
         <v>6610134</v>
       </c>
-      <c r="C56" s="403" t="s">
+      <c r="C56" s="395" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="405" t="s">
+      <c r="D56" s="397" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="407">
+      <c r="E56" s="399">
         <v>22</v>
       </c>
-      <c r="F56" s="406">
+      <c r="F56" s="398">
         <v>4</v>
       </c>
-      <c r="G56" s="408">
+      <c r="G56" s="400">
         <v>0</v>
       </c>
-      <c r="H56" s="409">
+      <c r="H56" s="401">
         <v>1100</v>
       </c>
-      <c r="I56" s="410">
+      <c r="I56" s="402">
         <v>200</v>
       </c>
-      <c r="J56" s="411">
+      <c r="J56" s="403">
         <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="412" t="s">
+      <c r="D57" s="404" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="414">
+      <c r="E57" s="406">
         <v>880</v>
       </c>
-      <c r="F57" s="413">
+      <c r="F57" s="405">
         <v>152</v>
       </c>
-      <c r="G57" s="415">
+      <c r="G57" s="407">
         <v>0</v>
       </c>
-      <c r="H57" s="416">
+      <c r="H57" s="408">
         <v>44000</v>
       </c>
-      <c r="I57" s="417">
+      <c r="I57" s="409">
         <v>7600</v>
       </c>
-      <c r="J57" s="418">
+      <c r="J57" s="410">
         <v>36400</v>
       </c>
     </row>
@@ -4959,39 +4968,39 @@
       <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="E63" s="416"/>
+      <c r="F63" s="415"/>
+      <c r="H63" s="416"/>
+      <c r="I63" s="416"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="417" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="H64" s="2" t="s">
+      <c r="F64" s="415"/>
+      <c r="H64" s="417" t="s">
         <v>67</v>
       </c>
-      <c r="I64" s="2"/>
+      <c r="I64" s="417"/>
     </row>
     <row r="65" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="E65" s="416"/>
+      <c r="F65" s="415"/>
+      <c r="H65" s="416"/>
+      <c r="I65" s="416"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="417" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="H66" s="2" t="s">
+      <c r="F66" s="415"/>
+      <c r="H66" s="417" t="s">
         <v>67</v>
       </c>
-      <c r="I66" s="2"/>
+      <c r="I66" s="417"/>
     </row>
   </sheetData>
   <mergeCells count="25">
